--- a/inst/extdata/hilic_pos_sample.xlsx
+++ b/inst/extdata/hilic_pos_sample.xlsx
@@ -12,7 +12,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1327">
+  <si>
+    <t xml:space="preserve">Sample_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_50</t>
+  </si>
   <si>
     <t xml:space="preserve">Injection_order</t>
   </si>
@@ -167,159 +320,6 @@
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subject_ID</t>
   </si>
   <si>
@@ -1022,16 +1022,22 @@
     <t xml:space="preserve">3113.14174633935</t>
   </si>
   <si>
+    <t xml:space="preserve">4003.68555015553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5153.97329193631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3361.06989796422</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">5153.97329193631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3361.06989796422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4436.01555643515</t>
+    <t xml:space="preserve">7107.81204076548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3958.44390651821</t>
   </si>
   <si>
     <t xml:space="preserve">4085.4510791526</t>
@@ -1040,18 +1046,15 @@
     <t xml:space="preserve">4434.87510051032</t>
   </si>
   <si>
-    <t xml:space="preserve">5018.9823026518</t>
-  </si>
-  <si>
     <t xml:space="preserve">5913.06762426814</t>
   </si>
   <si>
+    <t xml:space="preserve">5686.47943003896</t>
+  </si>
+  <si>
     <t xml:space="preserve">5079.49108426116</t>
   </si>
   <si>
-    <t xml:space="preserve">4904.12911024557</t>
-  </si>
-  <si>
     <t xml:space="preserve">4636.99670384659</t>
   </si>
   <si>
@@ -1061,12 +1064,18 @@
     <t xml:space="preserve">2885.45795271273</t>
   </si>
   <si>
+    <t xml:space="preserve">7286.62308646481</t>
+  </si>
+  <si>
     <t xml:space="preserve">5442.09813368788</t>
   </si>
   <si>
     <t xml:space="preserve">5784.39633961106</t>
   </si>
   <si>
+    <t xml:space="preserve">7137.16686701323</t>
+  </si>
+  <si>
     <t xml:space="preserve">7909.6554500269</t>
   </si>
   <si>
@@ -1079,79 +1088,73 @@
     <t xml:space="preserve">5025.98276634192</t>
   </si>
   <si>
-    <t xml:space="preserve">6523.29254507992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4227.11120532449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8463.16828182454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5936.30827598789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4803.33819101999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6174.09035780634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6047.58739486347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6977.41062948337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7515.25851847052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6998.86495377969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8674.68844121734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7937.70405233349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6990.11262473824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6255.12276725509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7530.93887955133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6508.09516349096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7163.06295958144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7729.40193982978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6925.34220524445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5931.85181684166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7997.97475087426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8695.66658152121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7099.12967828348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8001.72101412004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7255.03522185627</t>
+    <t xml:space="preserve">12644.0794219299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8193.39764943775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16404.1350555797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11506.3294794686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9310.29678002916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11967.221813646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11722.0214796881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13524.2952157873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14566.8042521788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13565.8800716668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15385.6292312351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12124.2867028473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14597.1974515486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12614.622380338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13884.1446001901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14981.8778378932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13423.3711368959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11497.6915373563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15502.4517551213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16854.78584987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13760.2229025429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15509.7131265358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14062.4141750683</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_331_1173a7_7822</t>
@@ -1166,9 +1169,6 @@
     <t xml:space="preserve">6145.64470547199</t>
   </si>
   <si>
-    <t xml:space="preserve">6570.2880085311</t>
-  </si>
-  <si>
     <t xml:space="preserve">7837.4338072986</t>
   </si>
   <si>
@@ -1178,6 +1178,9 @@
     <t xml:space="preserve">3688.0531496433</t>
   </si>
   <si>
+    <t xml:space="preserve">5418.31426446247</t>
+  </si>
+  <si>
     <t xml:space="preserve">6340.03192832722</t>
   </si>
   <si>
@@ -1187,12 +1190,12 @@
     <t xml:space="preserve">4379.45132685834</t>
   </si>
   <si>
-    <t xml:space="preserve">8823.03930630665</t>
-  </si>
-  <si>
     <t xml:space="preserve">10149.4159460028</t>
   </si>
   <si>
+    <t xml:space="preserve">6447.64344825176</t>
+  </si>
+  <si>
     <t xml:space="preserve">7815.17296396338</t>
   </si>
   <si>
@@ -1217,6 +1220,9 @@
     <t xml:space="preserve">8958.02807693109</t>
   </si>
   <si>
+    <t xml:space="preserve">8196.79549517534</t>
+  </si>
+  <si>
     <t xml:space="preserve">8045.83413184993</t>
   </si>
   <si>
@@ -1229,70 +1235,79 @@
     <t xml:space="preserve">7166.38893551199</t>
   </si>
   <si>
-    <t xml:space="preserve">9154.82111669335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10174.8382020642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8103.33902345551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8863.32489466625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7865.07638331564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9790.9270953535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8818.20848600057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9349.08131251813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7281.36483821942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10109.9884053771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11978.3397499423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10782.2160376565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10029.3765449687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8965.95340524195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11533.2868827387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8584.84649073769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12912.8993713945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10828.4554476828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8500.80541849491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8930.85182022837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10378.0255440681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10625.0055756925</t>
+    <t xml:space="preserve">14423.4286287552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16030.4664335825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12766.8176766771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13964.1760775182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12391.4346799859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15425.6141511789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13893.0951364402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14729.4857361713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11471.796633195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11502.9574730101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15928.2955225201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18871.8846902688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16987.3907416259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15801.291466361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14125.8673851578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18170.7035110507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13525.4331100135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20344.2841863936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17060.2409723239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13393.0263276278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11700.9036782153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14070.5648074508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13721.6472653165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16350.5882675652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16739.7055221194</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_139_4044a6_0388</t>
@@ -1313,6 +1328,9 @@
     <t xml:space="preserve">15237.6096526884</t>
   </si>
   <si>
+    <t xml:space="preserve">28512.5517433256</t>
+  </si>
+  <si>
     <t xml:space="preserve">24136.0945489499</t>
   </si>
   <si>
@@ -1334,6 +1352,9 @@
     <t xml:space="preserve">7588.68287544997</t>
   </si>
   <si>
+    <t xml:space="preserve">35937.7123917458</t>
+  </si>
+  <si>
     <t xml:space="preserve">25848.4145434303</t>
   </si>
   <si>
@@ -1373,79 +1394,76 @@
     <t xml:space="preserve">25652.0097779479</t>
   </si>
   <si>
-    <t xml:space="preserve">42263.2830502594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26117.7784345748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26012.021623791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34797.3280250194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31520.693738287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27059.9802611431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29393.5057826347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32659.5654766597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47940.2469718484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49948.5206845129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27717.3431618702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36606.9228907874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38521.2179219651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46800.0909973028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34745.4206747928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30943.7754820774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29779.1072897798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34281.4063571413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33721.8047003854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38009.2211038466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37252.5902395437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45176.7765881092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45832.7116721274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33621.1500786567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39972.5176383918</t>
+    <t xml:space="preserve">41174.3137071631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25444.8193558584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25341.787509073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33900.7288801813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30708.5214062582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26362.7441071478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28636.1432595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31818.0486091548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46705.0031506164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48661.5310369324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27003.1691839645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35663.6971426657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37528.6678324259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45594.2248015892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33850.1589914342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30146.468211377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29011.8092342836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33398.10061592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32852.9178354219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37029.8632889831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36292.728018865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44012.7372335266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32754.8567130476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38942.572893616</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_132_7373a6_4146</t>
@@ -1472,7 +1490,7 @@
     <t xml:space="preserve">27748.3207023994</t>
   </si>
   <si>
-    <t xml:space="preserve">24602.5903173935</t>
+    <t xml:space="preserve">33280.0824483006</t>
   </si>
   <si>
     <t xml:space="preserve">22225.3564840145</t>
@@ -1490,7 +1508,10 @@
     <t xml:space="preserve">22392.0578484448</t>
   </si>
   <si>
-    <t xml:space="preserve">21199.2541780255</t>
+    <t xml:space="preserve">19653.8017224686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23101.0894448594</t>
   </si>
   <si>
     <t xml:space="preserve">12247.0505193141</t>
@@ -1523,73 +1544,79 @@
     <t xml:space="preserve">21701.6455695701</t>
   </si>
   <si>
-    <t xml:space="preserve">36344.1907738068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43694.4391352813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24389.0296006739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28500.8007237298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34067.8548112243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33666.3257124032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38533.4173142223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41639.9065148623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14627.4874477585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36798.8183896703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27410.3829023503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37981.0772826304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36293.4576716277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37324.9028568763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32886.7382915207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31780.5062357723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26147.3602856836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33570.1228453168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28659.5486904681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34182.3581854494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32511.2957986129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15926.9890991612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35581.0758100826</t>
+    <t xml:space="preserve">33953.1362791058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40819.8178309282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22784.4953516924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26625.7564258067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31826.5585920247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31451.4457632057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35998.3354014407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38900.4512260944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13665.1570487734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34377.8543170922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25607.0762983311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35482.3333673945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33905.7408660982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34869.3281187937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30723.1467591796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29689.6928028403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24427.1469034473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31361.5720038214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29980.3786103927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20187.8176682274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26774.0604940482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31933.5288831967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30372.404319872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14879.1655526248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33240.2260227953</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_298_6144a3_839</t>
@@ -1601,10 +1628,10 @@
     <t xml:space="preserve">3.8390200289432</t>
   </si>
   <si>
-    <t xml:space="preserve">23606.9982661672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23673.3844821044</t>
+    <t xml:space="preserve">33514.1911164556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34221.8494633874</t>
   </si>
   <si>
     <t xml:space="preserve">18549.0774871294</t>
@@ -1613,15 +1640,27 @@
     <t xml:space="preserve">19837.69167399</t>
   </si>
   <si>
+    <t xml:space="preserve">44948.4236776298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24414.0056141905</t>
+  </si>
+  <si>
     <t xml:space="preserve">12033.7201573582</t>
   </si>
   <si>
     <t xml:space="preserve">36333.9976236772</t>
   </si>
   <si>
+    <t xml:space="preserve">22594.9866405568</t>
+  </si>
+  <si>
     <t xml:space="preserve">23559.3798716544</t>
   </si>
   <si>
+    <t xml:space="preserve">27171.7076999226</t>
+  </si>
+  <si>
     <t xml:space="preserve">32479.9823908921</t>
   </si>
   <si>
@@ -1643,6 +1682,9 @@
     <t xml:space="preserve">34877.7191127132</t>
   </si>
   <si>
+    <t xml:space="preserve">25191.627230096</t>
+  </si>
+  <si>
     <t xml:space="preserve">31358.8485616251</t>
   </si>
   <si>
@@ -1652,70 +1694,67 @@
     <t xml:space="preserve">25691.6054378357</t>
   </si>
   <si>
-    <t xml:space="preserve">38870.3574795045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46654.84662652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23480.6793158066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37765.7936515359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31820.2142640033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45229.2896328119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42545.3550030207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48567.0627024344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38003.267663357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26311.0345503557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39904.3509003503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37146.5680436705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34638.7017504537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37431.2611469158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43280.6622233455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43246.6161212363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43879.1654167129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33627.3885352944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38501.7000972232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32280.6501311635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35533.6727739032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41770.3371617758</t>
+    <t xml:space="preserve">36733.2207831456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44089.7098165201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22189.6847205626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35689.3871373336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30070.7025023618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45896.7900662627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35913.8045564707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24864.4237882504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35287.6742001922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37710.3640635046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35104.2072613757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32734.2263243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35373.2476123028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40901.041929681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40868.8677211921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41466.6387331828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32593.1889311494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31778.5162659979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36384.8326052439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30505.8230791095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39473.7562668153</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_410_9203a2_7329</t>
@@ -1736,6 +1775,9 @@
     <t xml:space="preserve">13928.4276077023</t>
   </si>
   <si>
+    <t xml:space="preserve">10449.1535367498</t>
+  </si>
+  <si>
     <t xml:space="preserve">9444.27426677376</t>
   </si>
   <si>
@@ -1745,6 +1787,9 @@
     <t xml:space="preserve">9543.83904000112</t>
   </si>
   <si>
+    <t xml:space="preserve">9235.28696175774</t>
+  </si>
+  <si>
     <t xml:space="preserve">7093.82018947634</t>
   </si>
   <si>
@@ -1757,9 +1802,6 @@
     <t xml:space="preserve">9900.05634296584</t>
   </si>
   <si>
-    <t xml:space="preserve">11839.2868238998</t>
-  </si>
-  <si>
     <t xml:space="preserve">11931.9508187599</t>
   </si>
   <si>
@@ -1793,79 +1835,76 @@
     <t xml:space="preserve">7320.74679651954</t>
   </si>
   <si>
-    <t xml:space="preserve">10343.2001315161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18287.0531095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18995.8656248183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14092.0615605179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15014.7931406202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12575.4550899015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16683.1247044296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15279.725572561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11951.3643026124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8702.05303991683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16666.6815787622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13567.9726377785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12599.2596537281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15859.3615631706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14627.4536828255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16768.2017803672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10987.8699513773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13004.202223259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12011.8918081229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13662.417827222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6560.77525826082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9571.26738051007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13178.9574577344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12326.2069178858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15004.5697977705</t>
+    <t xml:space="preserve">21872.7606899147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22720.5564735624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16855.2192797335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17958.8791702448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15041.2380880161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19954.3355637999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18275.7592956614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10408.3431328893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19934.6682860509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16228.3675109617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15069.7102275561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18969.049747324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17495.5905684468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20056.0944700075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13142.3608002499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15554.0535421116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14367.1718662933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16341.3314212561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7847.20568726868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11447.9921756408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15763.0746129262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15093.4309404711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14743.11757695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17946.6512442764</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_145_8514a2_811</t>
@@ -1883,6 +1922,9 @@
     <t xml:space="preserve">20703.2476466333</t>
   </si>
   <si>
+    <t xml:space="preserve">19376.8319499824</t>
+  </si>
+  <si>
     <t xml:space="preserve">25651.7660602648</t>
   </si>
   <si>
@@ -1892,6 +1934,9 @@
     <t xml:space="preserve">25411.5171777152</t>
   </si>
   <si>
+    <t xml:space="preserve">15108.1924681454</t>
+  </si>
+  <si>
     <t xml:space="preserve">22046.8085284201</t>
   </si>
   <si>
@@ -1910,6 +1955,9 @@
     <t xml:space="preserve">22281.5455270521</t>
   </si>
   <si>
+    <t xml:space="preserve">12689.7044246668</t>
+  </si>
+  <si>
     <t xml:space="preserve">13925.3330154439</t>
   </si>
   <si>
@@ -1943,76 +1991,76 @@
     <t xml:space="preserve">13856.8771867616</t>
   </si>
   <si>
-    <t xml:space="preserve">25778.0391524989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29840.8004095975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21843.3759398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30032.99484285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31942.4014726007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17412.524585137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31793.9131391711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26460.3419861454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22396.542445815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31405.127595049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23142.5376314201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23275.9481198409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24933.980527604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19434.6378349901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19653.1956422766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37568.552568282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26515.0665269387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22457.6292248723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18918.1043889328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27282.2934201125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31474.4787760386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26034.1957199167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33743.665920486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26072.4299657179</t>
+    <t xml:space="preserve">25640.659275195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29681.7687053368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21726.9652117764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29872.9388695398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31772.1696264491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17319.7273604564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31624.472637501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26319.3258865898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22277.1837065783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31237.7590628578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21837.4416645409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23019.2032318757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23151.9027307437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24801.0989237971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19331.0640858223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19548.4571247349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37368.3370626811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26373.7587818218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22337.9449335576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18817.2834209608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31306.7406479802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25895.4506977468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33563.8345277056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25933.4811803383</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_306_0061a4_4049</t>
@@ -2036,6 +2084,9 @@
     <t xml:space="preserve">34395.820822494</t>
   </si>
   <si>
+    <t xml:space="preserve">32915.6574218154</t>
+  </si>
+  <si>
     <t xml:space="preserve">38564.7710391627</t>
   </si>
   <si>
@@ -2045,6 +2096,9 @@
     <t xml:space="preserve">26414.1229710272</t>
   </si>
   <si>
+    <t xml:space="preserve">30752.2448720988</t>
+  </si>
+  <si>
     <t xml:space="preserve">23720.5748583733</t>
   </si>
   <si>
@@ -2087,76 +2141,79 @@
     <t xml:space="preserve">37307.9025483307</t>
   </si>
   <si>
-    <t xml:space="preserve">31013.7876294008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40448.5465447121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38452.4972394691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31767.4491318302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39070.0916450721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43820.3199177136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38816.298242286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53442.4399847089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50487.3158530188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47133.0189197133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36564.2975483038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49216.0474077298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46142.1602085642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46039.3359751463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36352.696001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46348.226707739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30086.4401856005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48577.8258679146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44124.7386816123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51367.921463905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42415.1369587762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43997.8105544584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60809.4656120758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41749.9277956295</t>
+    <t xml:space="preserve">47296.3626152478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38067.5426008055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36188.9907503292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29897.4580411212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36770.2304574055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32802.1450159584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41240.836513236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36531.3766048528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50296.550422647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47515.379691347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44358.533467881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34411.9399457272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46318.944470996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43426.001660926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43329.2301766477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34212.7943248213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28315.4016969656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45718.2918460912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41527.3356647046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55179.133193744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48344.1484474718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39918.3696579153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41407.879162545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57229.916040643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39292.3180362943</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_425_8858a4_4494</t>
@@ -2189,18 +2246,21 @@
     <t xml:space="preserve">3179.88861655816</t>
   </si>
   <si>
-    <t xml:space="preserve">3104.35056812942</t>
-  </si>
-  <si>
     <t xml:space="preserve">4313.27313466623</t>
   </si>
   <si>
+    <t xml:space="preserve">3026.06526193402</t>
+  </si>
+  <si>
     <t xml:space="preserve">3188.72781155726</t>
   </si>
   <si>
     <t xml:space="preserve">4095.15138538126</t>
   </si>
   <si>
+    <t xml:space="preserve">3607.16337043197</t>
+  </si>
+  <si>
     <t xml:space="preserve">3510.92861317451</t>
   </si>
   <si>
@@ -2216,79 +2276,91 @@
     <t xml:space="preserve">3341.83718828228</t>
   </si>
   <si>
+    <t xml:space="preserve">5620.30776682681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2765.00878542502</t>
+  </si>
+  <si>
     <t xml:space="preserve">3489.28125517294</t>
   </si>
   <si>
     <t xml:space="preserve">2026.23989516552</t>
   </si>
   <si>
+    <t xml:space="preserve">3429.10614929263</t>
+  </si>
+  <si>
     <t xml:space="preserve">3080.46152815303</t>
   </si>
   <si>
-    <t xml:space="preserve">3822.21182935612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4596.51294060992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2251.73850470873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4853.59347980094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5283.97417360637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5708.36247903804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4993.95162154954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5090.76314637299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6133.21672970122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3834.26098622595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3833.85029702659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5596.95353823004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5101.46897633808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2082.11898302473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4793.07444600747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4260.41970903047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4564.11108490692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5488.06080927646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4648.92419523184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5580.13364502736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5384.76774816799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5896.38075504925</t>
+    <t xml:space="preserve">9520.28870706291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11448.9024141106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5608.58518959911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12089.2334745893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13161.2170908568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14218.2749861256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12438.8347242036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10230.2739923601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12679.9709321478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15276.4934484492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9550.30050578021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9549.27756934409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12706.636799103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5186.10028063016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11938.4938767571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10611.768121199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13762.5158213704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11368.1965205837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13669.5519973394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14763.7268710075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11579.4473178932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13898.8851734063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13412.2717085715</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_436_332a6_1165</t>
@@ -2318,9 +2390,6 @@
     <t xml:space="preserve">3546.31492623408</t>
   </si>
   <si>
-    <t xml:space="preserve">3725.18518349216</t>
-  </si>
-  <si>
     <t xml:space="preserve">3587.58125135387</t>
   </si>
   <si>
@@ -2330,6 +2399,9 @@
     <t xml:space="preserve">3627.06081334979</t>
   </si>
   <si>
+    <t xml:space="preserve">4954.11393625456</t>
+  </si>
+  <si>
     <t xml:space="preserve">2852.55703388759</t>
   </si>
   <si>
@@ -2345,15 +2417,15 @@
     <t xml:space="preserve">4330.86414495522</t>
   </si>
   <si>
-    <t xml:space="preserve">5641.54552753291</t>
-  </si>
-  <si>
     <t xml:space="preserve">4047.8532706242</t>
   </si>
   <si>
     <t xml:space="preserve">4192.64305772662</t>
   </si>
   <si>
+    <t xml:space="preserve">4384.94396197529</t>
+  </si>
+  <si>
     <t xml:space="preserve">3281.34423383019</t>
   </si>
   <si>
@@ -2369,70 +2441,76 @@
     <t xml:space="preserve">3879.53301247816</t>
   </si>
   <si>
-    <t xml:space="preserve">4329.02529299314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6230.49584084085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5641.80000132856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6207.38862941814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098.41763635557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5387.0044922166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5617.90676148455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4242.43747823398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5311.89834871597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3658.72555878345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5564.01552933318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5351.65798333728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483.4933771853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4713.4211144643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5676.97460514979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7564.86938709973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5963.4853027524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5836.01160545412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6501.20930216115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6541.95562645424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6352.17126299752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5639.35933637051</t>
+    <t xml:space="preserve">9501.19540882877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13674.4773872167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11714.2210261365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12382.4280622511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13623.7624765333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8995.06567749364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11823.2116665227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12329.9880034981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9311.15545933209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11658.3712931116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8030.04467022708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12211.7093858329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11745.634367904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12034.9821434362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10344.8541003236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12459.6280695771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16603.1144251887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13088.4518671762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12808.6769928004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9196.63096070591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14268.629955456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14358.05858271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13941.5264072891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12377.0713749776</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_255_0094a7_9288</t>
@@ -2456,6 +2534,9 @@
     <t xml:space="preserve">13502.0494486246</t>
   </si>
   <si>
+    <t xml:space="preserve">33232.9200872861</t>
+  </si>
+  <si>
     <t xml:space="preserve">22658.5359780381</t>
   </si>
   <si>
@@ -2480,18 +2561,15 @@
     <t xml:space="preserve">16573.7139125517</t>
   </si>
   <si>
-    <t xml:space="preserve">11051.808007445</t>
-  </si>
-  <si>
     <t xml:space="preserve">24214.4322686393</t>
   </si>
   <si>
+    <t xml:space="preserve">12960.0282271267</t>
+  </si>
+  <si>
     <t xml:space="preserve">16199.3789096232</t>
   </si>
   <si>
-    <t xml:space="preserve">21673.7270360851</t>
-  </si>
-  <si>
     <t xml:space="preserve">24957.6618434586</t>
   </si>
   <si>
@@ -2510,64 +2588,73 @@
     <t xml:space="preserve">23120.8138313564</t>
   </si>
   <si>
-    <t xml:space="preserve">19522.8689185148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12040.0322553274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15573.9446037759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30373.3910976116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18237.2395134123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27760.4562995401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17766.5081028003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26378.590650288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19964.1282132409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14783.2483055257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24338.4221669073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23878.0839122102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25648.8111420916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18689.1508511218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21858.2307128544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30213.5740923291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28121.9052103245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22565.9377147104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26527.6080380328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23139.2824985251</t>
+    <t xml:space="preserve">20955.8224870265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12923.7551987779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16717.0521864232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32602.7590938208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19575.8295305673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29798.038228916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19070.5470374548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25906.5099623796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28314.7454112716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15868.3197928166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25630.704681936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27531.4010220702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21112.0207940883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20060.9105815358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23462.5968453153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25551.7056887109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24317.5321683003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32431.2117250869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30186.0170267116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24222.2486344872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28474.7004843756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26077.9920163399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24837.6761909408</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_417_1474a2_8239</t>
@@ -2603,6 +2690,9 @@
     <t xml:space="preserve">10248.7295146789</t>
   </si>
   <si>
+    <t xml:space="preserve">12484.6539246772</t>
+  </si>
+  <si>
     <t xml:space="preserve">7941.32930800511</t>
   </si>
   <si>
@@ -2627,6 +2717,9 @@
     <t xml:space="preserve">5326.42599239243</t>
   </si>
   <si>
+    <t xml:space="preserve">9685.03558339953</t>
+  </si>
+  <si>
     <t xml:space="preserve">9400.19888951599</t>
   </si>
   <si>
@@ -2636,6 +2729,9 @@
     <t xml:space="preserve">11576.2440338875</t>
   </si>
   <si>
+    <t xml:space="preserve">8245.23167376746</t>
+  </si>
+  <si>
     <t xml:space="preserve">5671.66083455399</t>
   </si>
   <si>
@@ -2645,79 +2741,76 @@
     <t xml:space="preserve">8537.97604681896</t>
   </si>
   <si>
-    <t xml:space="preserve">16850.9495147821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10603.9967220363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7592.18389162743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17921.1671368457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21081.701299342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13899.3582383496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16747.0902217914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18531.7631998764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14810.125334274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11908.5864334572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14403.4464420405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5645.81950996165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13202.6081819063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9156.10008060249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7739.81839130703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11581.9469791986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10735.7388472606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11108.0897860938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11997.3544148956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15589.7057900772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9302.29157694107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14279.3661584313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13015.9653629012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10233.0988977221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15570.6497591568</t>
+    <t xml:space="preserve">20193.9225892725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12707.6690102154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9098.3581463201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21476.4551726542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16656.7803232439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20069.4591861277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22208.1842434309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17748.2298119401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14271.0695545043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17260.8719890916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6765.86456075704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15821.8056120833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10972.5316122467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9275.28109392139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13879.6297814449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12865.5467770554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13311.7665006528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14377.4477585338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18682.4672187278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11147.725286507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17112.1760571584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15598.1356856186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12263.1906770414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18659.6307599912</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_297_8334a0_6647</t>
@@ -2741,7 +2834,7 @@
     <t xml:space="preserve">4733.67160459565</t>
   </si>
   <si>
-    <t xml:space="preserve">12016.9162057905</t>
+    <t xml:space="preserve">13809.008765349</t>
   </si>
   <si>
     <t xml:space="preserve">10656.4279729632</t>
@@ -2765,7 +2858,7 @@
     <t xml:space="preserve">11203.7910776679</t>
   </si>
   <si>
-    <t xml:space="preserve">5593.54933300087</t>
+    <t xml:space="preserve">11301.4027352442</t>
   </si>
   <si>
     <t xml:space="preserve">13920.8347324909</t>
@@ -2777,6 +2870,12 @@
     <t xml:space="preserve">10629.8976350133</t>
   </si>
   <si>
+    <t xml:space="preserve">8827.93081799843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7812.02841453624</t>
+  </si>
+  <si>
     <t xml:space="preserve">7020.52347411173</t>
   </si>
   <si>
@@ -2789,73 +2888,76 @@
     <t xml:space="preserve">9696.77431903799</t>
   </si>
   <si>
-    <t xml:space="preserve">13261.4993291314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9742.36258604897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10334.3252505364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11202.3118588096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12686.7747887217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15009.3556064105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12660.9905256376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16607.6578801642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12648.8117899412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15237.6496800435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15534.8458849246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12976.5821373479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12638.5631844807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13867.5080701823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12009.8276230715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17018.345295003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12911.7367830212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14117.0987171602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10698.2274830138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14766.2078918293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15117.6889769203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12707.8311446443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14665.6064245864</t>
+    <t xml:space="preserve">18348.5524569801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13479.4902543458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14298.5272072839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15499.4696813276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14442.3851042721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17553.3660971048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20766.878755913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17517.6911034996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18331.2606384156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22978.2827898187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17500.840658068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21082.7454374783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21493.9448064136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17954.3422768499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17486.6607323873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19187.0235000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16616.744960138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23546.508100364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17864.622528281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19532.356027284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20430.4606417117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20916.7683334265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17582.4995790446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20291.2688917335</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_449_2162a0_7574</t>
@@ -2867,12 +2969,12 @@
     <t xml:space="preserve">0.757360686082393</t>
   </si>
   <si>
-    <t xml:space="preserve">39256.1736060518</t>
-  </si>
-  <si>
     <t xml:space="preserve">45756.939405652</t>
   </si>
   <si>
+    <t xml:space="preserve">34353.2856961512</t>
+  </si>
+  <si>
     <t xml:space="preserve">29066.3830274001</t>
   </si>
   <si>
@@ -2882,9 +2984,6 @@
     <t xml:space="preserve">49100.2617435845</t>
   </si>
   <si>
-    <t xml:space="preserve">39367.2556055148</t>
-  </si>
-  <si>
     <t xml:space="preserve">36432.0242349468</t>
   </si>
   <si>
@@ -2918,7 +3017,7 @@
     <t xml:space="preserve">37503.1736540388</t>
   </si>
   <si>
-    <t xml:space="preserve">49514.489636439</t>
+    <t xml:space="preserve">46104.5765620587</t>
   </si>
   <si>
     <t xml:space="preserve">47757.4708352149</t>
@@ -2933,73 +3032,79 @@
     <t xml:space="preserve">47815.0947644788</t>
   </si>
   <si>
-    <t xml:space="preserve">43167.5047498189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51965.245642629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60930.6278977192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45472.0875734404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58881.3116950449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51037.8670533245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60145.6665713482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56308.9881347994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64817.6988876042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44224.5378715076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46297.5544056278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44292.548108208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68632.0375462604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47727.7173912125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60503.3005504604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60574.7250624016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65291.1195380795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44038.0916482262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49796.3395335186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45212.2615785885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70055.0794510882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68451.7074094521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80265.7026347816</t>
+    <t xml:space="preserve">49605.4098517882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47446.1646309241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55631.8856295222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41517.6744849522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53760.7851905561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46599.4341540602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54915.1873081858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51412.1599581702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59180.9232187313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40378.6161044679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42271.3558104803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40440.711931153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71550.0011689571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62663.5535367191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46823.3009232294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43577.1467795014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55241.7201753113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55306.9333598222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59613.1735399673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40208.3839022483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45465.8742455083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41280.443874865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63962.8426992777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62498.9055445251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73285.5140841008</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_197_7438a7_72</t>
@@ -3011,6 +3116,9 @@
     <t xml:space="preserve">7.72002756723668</t>
   </si>
   <si>
+    <t xml:space="preserve">21291.8217460258</t>
+  </si>
+  <si>
     <t xml:space="preserve">34127.9841596823</t>
   </si>
   <si>
@@ -3032,6 +3140,9 @@
     <t xml:space="preserve">40900.5015010986</t>
   </si>
   <si>
+    <t xml:space="preserve">33431.1438697054</t>
+  </si>
+  <si>
     <t xml:space="preserve">24935.2132576769</t>
   </si>
   <si>
@@ -3041,6 +3152,9 @@
     <t xml:space="preserve">21365.2829836762</t>
   </si>
   <si>
+    <t xml:space="preserve">22461.8346309308</t>
+  </si>
+  <si>
     <t xml:space="preserve">27031.654332553</t>
   </si>
   <si>
@@ -3059,7 +3173,7 @@
     <t xml:space="preserve">22762.1926619208</t>
   </si>
   <si>
-    <t xml:space="preserve">38240.1665619071</t>
+    <t xml:space="preserve">25652.8714724532</t>
   </si>
   <si>
     <t xml:space="preserve">24259.3208252922</t>
@@ -3074,76 +3188,70 @@
     <t xml:space="preserve">23583.4929113967</t>
   </si>
   <si>
-    <t xml:space="preserve">21715.3549007644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32070.6771304436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41001.8740610996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33121.3239206753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28641.3844546089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25196.1961449782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31112.2717243564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35845.8887553654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38339.2892535725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33957.0502174304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26528.8512552906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25543.6512368791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32303.0126667756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34821.4667256622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30532.8315408769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23151.4457492387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27247.5539356319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30920.4768422518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35441.159709668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34481.7933229544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40441.8840924428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25104.7608007056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27107.4449140071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27985.8900997401</t>
+    <t xml:space="preserve">21188.9540903332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31293.2534820763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40007.9497235241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32318.4315970603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27947.0901150655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24585.4164395066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30358.080732549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34976.9503945751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37409.9084984956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33133.8990952869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25885.7667252698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24924.4488902487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33977.3613270373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29792.6867289995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26587.0473705985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30170.9351403979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34582.0323650288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33645.9219299575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24496.1975747503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26450.3347246198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27307.4855654157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34259.6500979887</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_141_601a7_387</t>
@@ -3161,6 +3269,9 @@
     <t xml:space="preserve">26769.867260087</t>
   </si>
   <si>
+    <t xml:space="preserve">22887.0291185877</t>
+  </si>
+  <si>
     <t xml:space="preserve">20942.3243332007</t>
   </si>
   <si>
@@ -3185,6 +3296,9 @@
     <t xml:space="preserve">15601.8198973419</t>
   </si>
   <si>
+    <t xml:space="preserve">7576.65431587448</t>
+  </si>
+  <si>
     <t xml:space="preserve">20777.4455091196</t>
   </si>
   <si>
@@ -3203,6 +3317,9 @@
     <t xml:space="preserve">18700.5970652401</t>
   </si>
   <si>
+    <t xml:space="preserve">32374.4469355362</t>
+  </si>
+  <si>
     <t xml:space="preserve">19905.9109160237</t>
   </si>
   <si>
@@ -3218,64 +3335,61 @@
     <t xml:space="preserve">22774.1831342669</t>
   </si>
   <si>
-    <t xml:space="preserve">33052.08516184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30873.2363060731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30887.6633413148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24096.1302453283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21158.9657359177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25679.8835283555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24805.5284509641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27672.8003790477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38035.2721052062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26209.8775509306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25562.2627123493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26814.7552140628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33616.0146983405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13808.6551305547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19138.1625791284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32011.5186077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16972.7724501397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25287.8108719682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27558.5974845687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18940.7744564681</t>
+    <t xml:space="preserve">32195.529991154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30073.1466879964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30087.1998420873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20610.6244915235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25014.3812790686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24162.6853881972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23581.3789655777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26955.651063476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37049.5760793538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32744.8451165508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13450.7994946884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18132.2038059831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24253.4487298285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27028.4389851855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31181.9300461739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16532.9177198903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24632.469308746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26844.4077728856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18449.9183359528</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_448_1172a6_8567</t>
@@ -3290,6 +3404,9 @@
     <t xml:space="preserve">3503.79188991632</t>
   </si>
   <si>
+    <t xml:space="preserve">6580.27680217958</t>
+  </si>
+  <si>
     <t xml:space="preserve">3640.26385207086</t>
   </si>
   <si>
@@ -3308,9 +3425,15 @@
     <t xml:space="preserve">5707.62045877007</t>
   </si>
   <si>
+    <t xml:space="preserve">3764.72663878566</t>
+  </si>
+  <si>
     <t xml:space="preserve">5979.40025915734</t>
   </si>
   <si>
+    <t xml:space="preserve">7440.55131968952</t>
+  </si>
+  <si>
     <t xml:space="preserve">7341.83548941329</t>
   </si>
   <si>
@@ -3329,9 +3452,6 @@
     <t xml:space="preserve">5802.3997746339</t>
   </si>
   <si>
-    <t xml:space="preserve">5151.64484564772</t>
-  </si>
-  <si>
     <t xml:space="preserve">4581.45293590278</t>
   </si>
   <si>
@@ -3353,67 +3473,70 @@
     <t xml:space="preserve">4643.58639313923</t>
   </si>
   <si>
-    <t xml:space="preserve">5727.73234679215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6743.91250674248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6803.38299114287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8671.12844373371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6879.07311528111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7094.39454919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7106.0869565356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5776.98800185242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8273.16199669684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6881.73900734278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8168.33540963388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5035.78651700416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6781.08280680225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6255.47506281094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7871.50824595875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7400.47593294283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5742.94420094703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7480.60557476944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6026.04113342259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6351.16294793623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8274.08081241384</t>
+    <t xml:space="preserve">10799.2999153959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12715.2473883125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14954.0080572715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12827.3754624382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16348.8988310087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12299.6127087987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12970.0847061165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13376.0605098516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13398.1058509988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15598.5566785471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12975.1110876185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15400.9123606463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9494.67705792721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12785.3297863693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11794.3275325025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14841.2623334659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13953.1588205721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10827.980964953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16492.2511096278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11361.7434548578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11974.7413694578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15600.2890511326</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_346_6405a3_2719</t>
@@ -3464,7 +3587,7 @@
     <t xml:space="preserve">24158.6129694325</t>
   </si>
   <si>
-    <t xml:space="preserve">20216.2775849605</t>
+    <t xml:space="preserve">6994.09344744713</t>
   </si>
   <si>
     <t xml:space="preserve">14497.3290676385</t>
@@ -3482,6 +3605,9 @@
     <t xml:space="preserve">13537.4816837734</t>
   </si>
   <si>
+    <t xml:space="preserve">31239.7178636935</t>
+  </si>
+  <si>
     <t xml:space="preserve">27977.1343678575</t>
   </si>
   <si>
@@ -3494,67 +3620,76 @@
     <t xml:space="preserve">26678.7034829847</t>
   </si>
   <si>
-    <t xml:space="preserve">44054.363898901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38907.2704229579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25549.80379499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40373.0437143211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36190.717284672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38471.8437558778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39820.1355938017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32555.7988480778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40236.5113024253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37238.1699241309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35369.6213408814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43832.8626455405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44190.7172211332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34584.6934260237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54632.7346955952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40378.1581975213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28372.5032588015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44912.3156347227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30156.7832710647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27492.2356543624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36021.7630764777</t>
+    <t xml:space="preserve">40272.1488518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35566.9506314206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23356.2673592924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36906.8823645913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38617.7585226919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33083.6227005043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35168.9068055936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36401.4432625302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29760.7742154227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46761.23795054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36782.0717186452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34041.1480141898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32333.0206002031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40069.6642247066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40396.7957835379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31615.4813821218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49942.3310002022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36911.5577522375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38570.3704519698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25936.6285973165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41056.4425506549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25131.934922094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32929.1737783237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29251.7506545082</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_334_3285a1_7395</t>
@@ -3566,6 +3701,9 @@
     <t xml:space="preserve">1.7395244219806</t>
   </si>
   <si>
+    <t xml:space="preserve">2520.25706049052</t>
+  </si>
+  <si>
     <t xml:space="preserve">4484.83539908789</t>
   </si>
   <si>
@@ -3581,10 +3719,7 @@
     <t xml:space="preserve">4655.57401029598</t>
   </si>
   <si>
-    <t xml:space="preserve">2220.9175577407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2904.69308408045</t>
+    <t xml:space="preserve">1767.72436166029</t>
   </si>
   <si>
     <t xml:space="preserve">4168.19141625078</t>
@@ -3593,6 +3728,9 @@
     <t xml:space="preserve">3225.84455914705</t>
   </si>
   <si>
+    <t xml:space="preserve">2825.30740076786</t>
+  </si>
+  <si>
     <t xml:space="preserve">2009.03702920261</t>
   </si>
   <si>
@@ -3632,73 +3770,73 @@
     <t xml:space="preserve">1826.18510393263</t>
   </si>
   <si>
-    <t xml:space="preserve">5361.57736548714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6017.13610402096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5361.40635948528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4353.76927959983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3575.63420568988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5841.03527336405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4085.74330709905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3836.7217616152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4084.53392166608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4556.05925172647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4185.39681397978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4052.65007613547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4002.16760897117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4979.68416666147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3334.66117894658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2487.29855525967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4475.13880989994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4201.7477815733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3395.10606454612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3368.41794901803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4729.95666640388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3249.81895328416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3934.17095079196</t>
+    <t xml:space="preserve">11703.2901470339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13134.2485390309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11702.9168738868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9503.43931254083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10943.4672077687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13557.9330460338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7804.92040238342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12749.8543625003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8918.39026646917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8374.82422218894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8915.75041113244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9944.99933793055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8846.15412074783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8735.96062351976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10869.6908895084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7278.92272346536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5429.29341314416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9768.36560778647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7410.86226025716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7352.60724718705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10324.5838820032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7093.72849498347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8587.53702250591</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_pos_215_5364a2_6707</t>
@@ -3773,6 +3911,9 @@
     <t xml:space="preserve">14615.0844763657</t>
   </si>
   <si>
+    <t xml:space="preserve">28059.6202751109</t>
+  </si>
+  <si>
     <t xml:space="preserve">9411.45303675026</t>
   </si>
   <si>
@@ -3782,76 +3923,76 @@
     <t xml:space="preserve">14522.0904291462</t>
   </si>
   <si>
-    <t xml:space="preserve">29539.0217744403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22727.5262121915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31918.9378083782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31102.2642640975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24168.1117873881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31805.7308234664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25533.7164142541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27588.1051744032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18484.6387475782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13845.7077953726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31675.4540319642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17422.8093787802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23955.9344260681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16587.6305782942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17611.524237693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26053.2157088746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18215.8794823371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17127.6914907116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28763.1827883308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31157.6037224919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22847.6968374544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29955.4539070569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15504.6319577768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21447.057144667</t>
+    <t xml:space="preserve">29070.9825217491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22367.413596916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31413.1893136377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30609.4557806504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23785.1734129794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31301.7760683095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25129.140337219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27150.9777628189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18191.7537437434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13626.3256242563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31173.5634836927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17146.7488259395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23576.3579549204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16324.8032484298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23762.769653393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17332.4735397415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25640.4082806633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17927.2529094895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16856.3070153944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28307.4365324098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30663.9183975925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22485.6801452575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15258.9645010078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21107.2332779504</t>
   </si>
 </sst>
 </file>
@@ -4546,49 +4687,49 @@
         <v>110</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
         <v>103</v>
       </c>
       <c r="V3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="Z3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
         <v>103</v>
       </c>
       <c r="AB3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
         <v>103</v>
@@ -4621,49 +4762,49 @@
         <v>110</v>
       </c>
       <c r="AQ3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="AR3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="AS3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="AT3" t="s">
         <v>103</v>
       </c>
       <c r="AU3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AV3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="AW3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="AX3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AY3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AZ3" t="s">
         <v>103</v>
       </c>
       <c r="BA3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="BB3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="BC3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="BD3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="BE3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="BF3" t="s">
         <v>103</v>
@@ -6018,144 +6159,144 @@
         <v>339</v>
       </c>
       <c r="N12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O12" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="S12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T12" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="U12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="V12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="W12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z12" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="AA12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AB12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AC12" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="AD12" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AE12" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AF12" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AH12" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AI12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AJ12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AK12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AL12" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AM12" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AN12" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AO12" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AP12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AQ12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AR12" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="AS12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AT12" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="AU12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AV12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AW12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AX12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AY12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AZ12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BA12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BB12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BC12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BD12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BE12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BF12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
         <v>330</v>
@@ -6164,10 +6305,10 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
         <v>333</v>
@@ -6177,10 +6318,10 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J13" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="K13" t="s">
         <v>385</v>
@@ -6192,144 +6333,144 @@
         <v>387</v>
       </c>
       <c r="N13" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="O13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R13" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="S13" t="s">
         <v>392</v>
       </c>
       <c r="T13" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="U13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="W13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="X13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AB13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC13" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="AD13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AE13" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF13" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG13" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AH13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AI13" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AJ13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AK13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AL13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AM13" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AN13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AO13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AP13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AQ13" t="s">
-        <v>336</v>
+        <v>416</v>
       </c>
       <c r="AR13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AS13" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AT13" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AU13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AV13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AW13" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AX13" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AY13" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AZ13" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="BA13" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="BB13" t="s">
-        <v>336</v>
+        <v>427</v>
       </c>
       <c r="BC13" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="BD13" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="BE13" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="BF13" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B14" t="s">
         <v>330</v>
@@ -6338,10 +6479,10 @@
         <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E14" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F14" t="s">
         <v>333</v>
@@ -6351,159 +6492,159 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="J14" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K14" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L14" t="s">
-        <v>336</v>
+        <v>438</v>
       </c>
       <c r="M14" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="N14" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="O14" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P14" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q14" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="R14" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="S14" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="T14" t="s">
-        <v>336</v>
+        <v>446</v>
       </c>
       <c r="U14" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="V14" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="W14" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="X14" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="Y14" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Z14" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AA14" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="AB14" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="AC14" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="AD14" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AE14" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AF14" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="AG14" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AH14" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="AI14" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AJ14" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AK14" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AL14" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AM14" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AN14" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AO14" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AP14" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AQ14" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AR14" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AS14" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AT14" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AU14" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AV14" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AW14" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AX14" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="AY14" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="AZ14" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="BA14" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="BB14" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="BC14" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="BD14" t="s">
-        <v>475</v>
+        <v>339</v>
       </c>
       <c r="BE14" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="BF14" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B15" t="s">
         <v>330</v>
@@ -6512,10 +6653,10 @@
         <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E15" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F15" t="s">
         <v>333</v>
@@ -6525,159 +6666,159 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="J15" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K15" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L15" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M15" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="N15" t="s">
-        <v>336</v>
+        <v>492</v>
       </c>
       <c r="O15" t="s">
-        <v>486</v>
+        <v>339</v>
       </c>
       <c r="P15" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="Q15" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="R15" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="S15" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="T15" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="U15" t="s">
-        <v>336</v>
+        <v>498</v>
       </c>
       <c r="V15" t="s">
-        <v>336</v>
+        <v>499</v>
       </c>
       <c r="W15" t="s">
-        <v>492</v>
+        <v>339</v>
       </c>
       <c r="X15" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Y15" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="Z15" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AA15" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AB15" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AC15" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AD15" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AE15" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AF15" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AG15" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="AH15" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AI15" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="AJ15" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AK15" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AL15" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AM15" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AN15" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="AO15" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="AP15" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="AQ15" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="AR15" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AS15" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AT15" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AU15" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AV15" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AW15" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AX15" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AY15" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="AZ15" t="s">
-        <v>336</v>
+        <v>528</v>
       </c>
       <c r="BA15" t="s">
-        <v>336</v>
+        <v>529</v>
       </c>
       <c r="BB15" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="BC15" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="BD15" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="BE15" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="BF15" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B16" t="s">
         <v>330</v>
@@ -6686,10 +6827,10 @@
         <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="E16" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="F16" t="s">
         <v>333</v>
@@ -6699,159 +6840,159 @@
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>529</v>
+        <v>339</v>
       </c>
       <c r="J16" t="s">
-        <v>530</v>
+        <v>339</v>
       </c>
       <c r="K16" t="s">
-        <v>336</v>
+        <v>538</v>
       </c>
       <c r="L16" t="s">
-        <v>336</v>
+        <v>539</v>
       </c>
       <c r="M16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N16" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="O16" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="P16" t="s">
-        <v>336</v>
+        <v>542</v>
       </c>
       <c r="Q16" t="s">
-        <v>336</v>
+        <v>543</v>
       </c>
       <c r="R16" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="S16" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="T16" t="s">
-        <v>336</v>
+        <v>546</v>
       </c>
       <c r="U16" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="V16" t="s">
-        <v>336</v>
+        <v>548</v>
       </c>
       <c r="W16" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="X16" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="Y16" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="Z16" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="AA16" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="AB16" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="AC16" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="AD16" t="s">
-        <v>336</v>
+        <v>556</v>
       </c>
       <c r="AE16" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="AF16" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="AG16" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="AH16" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="AI16" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="AJ16" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="AK16" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="AL16" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="AM16" t="s">
-        <v>551</v>
+        <v>339</v>
       </c>
       <c r="AN16" t="s">
-        <v>552</v>
+        <v>339</v>
       </c>
       <c r="AO16" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="AP16" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="AQ16" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="AR16" t="s">
-        <v>336</v>
+        <v>568</v>
       </c>
       <c r="AS16" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="AT16" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="AU16" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="AV16" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="AW16" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="AX16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AY16" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="AZ16" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="BA16" t="s">
-        <v>336</v>
+        <v>576</v>
       </c>
       <c r="BB16" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="BC16" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="BD16" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="BE16" t="s">
-        <v>566</v>
+        <v>339</v>
       </c>
       <c r="BF16" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="B17" t="s">
         <v>330</v>
@@ -6860,10 +7001,10 @@
         <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="E17" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="F17" t="s">
         <v>333</v>
@@ -6873,171 +7014,171 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="J17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="K17" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="L17" t="s">
-        <v>336</v>
+        <v>587</v>
       </c>
       <c r="M17" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="N17" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="O17" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="P17" t="s">
-        <v>336</v>
+        <v>591</v>
       </c>
       <c r="Q17" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="R17" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="S17" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="T17" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="U17" t="s">
-        <v>581</v>
+        <v>339</v>
       </c>
       <c r="V17" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="W17" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="X17" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="Y17" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="Z17" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="AA17" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="AB17" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="AC17" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="AD17" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="AE17" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="AF17" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="AG17" t="s">
-        <v>593</v>
+        <v>339</v>
       </c>
       <c r="AH17" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="AI17" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="AJ17" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="AK17" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="AL17" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="AM17" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="AN17" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="AO17" t="s">
-        <v>601</v>
+        <v>339</v>
       </c>
       <c r="AP17" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AQ17" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AR17" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AS17" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AT17" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AU17" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AV17" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AW17" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AX17" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AY17" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AZ17" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="BA17" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="BB17" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="BC17" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="BD17" t="s">
-        <v>336</v>
+        <v>628</v>
       </c>
       <c r="BE17" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="BF17" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="B18" t="s">
         <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="D18" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="E18" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="F18" t="s">
         <v>333</v>
@@ -7047,159 +7188,159 @@
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="J18" t="s">
-        <v>336</v>
+        <v>636</v>
       </c>
       <c r="K18" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="L18" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="M18" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="N18" t="s">
-        <v>336</v>
+        <v>640</v>
       </c>
       <c r="O18" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="P18" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="Q18" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="R18" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="S18" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T18" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="U18" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="V18" t="s">
-        <v>336</v>
+        <v>647</v>
       </c>
       <c r="W18" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="X18" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="Y18" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="Z18" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="AA18" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="AB18" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="AC18" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="AD18" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="AE18" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="AF18" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="AG18" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="AH18" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="AI18" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="AJ18" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="AK18" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="AL18" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="AM18" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="AN18" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="AO18" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="AP18" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="AQ18" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="AR18" t="s">
-        <v>336</v>
+        <v>669</v>
       </c>
       <c r="AS18" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="AT18" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="AU18" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="AV18" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="AW18" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="AX18" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="AY18" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="AZ18" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="BA18" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="BB18" t="s">
-        <v>662</v>
+        <v>339</v>
       </c>
       <c r="BC18" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="BD18" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="BE18" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="BF18" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="B19" t="s">
         <v>330</v>
@@ -7208,10 +7349,10 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="E19" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="F19" t="s">
         <v>333</v>
@@ -7221,159 +7362,159 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="J19" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="K19" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="L19" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="M19" t="s">
-        <v>336</v>
+        <v>690</v>
       </c>
       <c r="N19" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="O19" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="P19" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="Q19" t="s">
-        <v>336</v>
+        <v>694</v>
       </c>
       <c r="R19" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="S19" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="T19" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="U19" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="V19" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="W19" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="X19" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="Y19" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="Z19" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="AA19" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="AB19" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="AC19" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="AD19" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="AE19" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="AF19" t="s">
-        <v>336</v>
+        <v>709</v>
       </c>
       <c r="AG19" t="s">
-        <v>691</v>
+        <v>339</v>
       </c>
       <c r="AH19" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="AI19" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="AJ19" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="AK19" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="AL19" t="s">
-        <v>336</v>
+        <v>714</v>
       </c>
       <c r="AM19" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="AN19" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="AO19" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="AP19" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="AQ19" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="AR19" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="AS19" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="AT19" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="AU19" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="AV19" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="AW19" t="s">
-        <v>706</v>
+        <v>339</v>
       </c>
       <c r="AX19" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="AY19" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="AZ19" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="BA19" t="s">
-        <v>336</v>
+        <v>728</v>
       </c>
       <c r="BB19" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="BC19" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="BD19" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="BE19" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="BF19" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="B20" t="s">
         <v>330</v>
@@ -7382,10 +7523,10 @@
         <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="E20" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="F20" t="s">
         <v>333</v>
@@ -7395,171 +7536,171 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="J20" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="K20" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="L20" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="M20" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="N20" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="O20" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="P20" t="s">
-        <v>725</v>
+        <v>339</v>
       </c>
       <c r="Q20" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="R20" t="s">
-        <v>336</v>
+        <v>745</v>
       </c>
       <c r="S20" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="T20" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="U20" t="s">
-        <v>336</v>
+        <v>748</v>
       </c>
       <c r="V20" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="W20" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="X20" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="Y20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z20" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="AA20" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="AB20" t="s">
-        <v>336</v>
+        <v>754</v>
       </c>
       <c r="AC20" t="s">
-        <v>336</v>
+        <v>755</v>
       </c>
       <c r="AD20" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="AE20" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="AF20" t="s">
-        <v>336</v>
+        <v>758</v>
       </c>
       <c r="AG20" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="AH20" t="s">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="AI20" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="AJ20" t="s">
-        <v>739</v>
+        <v>762</v>
       </c>
       <c r="AK20" t="s">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="AL20" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="AM20" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="AN20" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="AO20" t="s">
-        <v>336</v>
+        <v>767</v>
       </c>
       <c r="AP20" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="AQ20" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="AR20" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="AS20" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="AT20" t="s">
-        <v>748</v>
+        <v>339</v>
       </c>
       <c r="AU20" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="AV20" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="AW20" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="AX20" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="AY20" t="s">
-        <v>336</v>
+        <v>776</v>
       </c>
       <c r="AZ20" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="BA20" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="BB20" t="s">
-        <v>336</v>
+        <v>779</v>
       </c>
       <c r="BC20" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="BD20" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="BE20" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="BF20" t="s">
-        <v>758</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="B21" t="s">
         <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="E21" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="F21" t="s">
         <v>333</v>
@@ -7569,171 +7710,171 @@
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="J21" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="K21" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="L21" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="M21" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="N21" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="O21" t="s">
-        <v>768</v>
+        <v>339</v>
       </c>
       <c r="P21" t="s">
-        <v>769</v>
+        <v>792</v>
       </c>
       <c r="Q21" t="s">
-        <v>770</v>
+        <v>793</v>
       </c>
       <c r="R21" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="S21" t="s">
-        <v>336</v>
+        <v>795</v>
       </c>
       <c r="T21" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="U21" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="V21" t="s">
-        <v>774</v>
+        <v>798</v>
       </c>
       <c r="W21" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="X21" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="Y21" t="s">
-        <v>777</v>
+        <v>339</v>
       </c>
       <c r="Z21" t="s">
-        <v>778</v>
+        <v>801</v>
       </c>
       <c r="AA21" t="s">
-        <v>779</v>
+        <v>802</v>
       </c>
       <c r="AB21" t="s">
-        <v>336</v>
+        <v>803</v>
       </c>
       <c r="AC21" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="AD21" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="AE21" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="AF21" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="AG21" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="AH21" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="AI21" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="AJ21" t="s">
-        <v>336</v>
+        <v>811</v>
       </c>
       <c r="AK21" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
       <c r="AL21" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="AM21" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
       <c r="AN21" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="AO21" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
       <c r="AP21" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
       <c r="AQ21" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="AR21" t="s">
-        <v>794</v>
+        <v>819</v>
       </c>
       <c r="AS21" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
       <c r="AT21" t="s">
-        <v>796</v>
+        <v>821</v>
       </c>
       <c r="AU21" t="s">
-        <v>797</v>
+        <v>822</v>
       </c>
       <c r="AV21" t="s">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="AW21" t="s">
-        <v>799</v>
+        <v>824</v>
       </c>
       <c r="AX21" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AY21" t="s">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="AZ21" t="s">
-        <v>801</v>
+        <v>826</v>
       </c>
       <c r="BA21" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="BB21" t="s">
-        <v>336</v>
+        <v>828</v>
       </c>
       <c r="BC21" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="BD21" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="BE21" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="BF21" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="B22" t="s">
         <v>330</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="E22" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="F22" t="s">
         <v>333</v>
@@ -7743,171 +7884,171 @@
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J22" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="K22" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="L22" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="M22" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="N22" t="s">
-        <v>336</v>
+        <v>840</v>
       </c>
       <c r="O22" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
       <c r="P22" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
       <c r="Q22" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="R22" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="S22" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
       <c r="T22" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="U22" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="V22" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="W22" t="s">
-        <v>822</v>
+        <v>339</v>
       </c>
       <c r="X22" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
       <c r="Y22" t="s">
-        <v>336</v>
+        <v>850</v>
       </c>
       <c r="Z22" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="AA22" t="s">
-        <v>825</v>
+        <v>339</v>
       </c>
       <c r="AB22" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="AC22" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="AD22" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="AE22" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="AF22" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="AG22" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="AH22" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="AI22" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="AJ22" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="AK22" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="AL22" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="AM22" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="AN22" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="AO22" t="s">
-        <v>336</v>
+        <v>865</v>
       </c>
       <c r="AP22" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="AQ22" t="s">
-        <v>840</v>
+        <v>339</v>
       </c>
       <c r="AR22" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
       <c r="AS22" t="s">
-        <v>842</v>
+        <v>339</v>
       </c>
       <c r="AT22" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="AU22" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="AV22" t="s">
-        <v>336</v>
+        <v>870</v>
       </c>
       <c r="AW22" t="s">
-        <v>845</v>
+        <v>871</v>
       </c>
       <c r="AX22" t="s">
-        <v>846</v>
+        <v>872</v>
       </c>
       <c r="AY22" t="s">
-        <v>336</v>
+        <v>873</v>
       </c>
       <c r="AZ22" t="s">
-        <v>336</v>
+        <v>874</v>
       </c>
       <c r="BA22" t="s">
-        <v>847</v>
+        <v>875</v>
       </c>
       <c r="BB22" t="s">
-        <v>848</v>
+        <v>876</v>
       </c>
       <c r="BC22" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="BD22" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="BE22" t="s">
-        <v>336</v>
+        <v>879</v>
       </c>
       <c r="BF22" t="s">
-        <v>851</v>
+        <v>880</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
       <c r="B23" t="s">
         <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="E23" t="s">
-        <v>854</v>
+        <v>883</v>
       </c>
       <c r="F23" t="s">
         <v>333</v>
@@ -7917,171 +8058,171 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="J23" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
       <c r="K23" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
       <c r="L23" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
       <c r="M23" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
       <c r="N23" t="s">
-        <v>860</v>
+        <v>889</v>
       </c>
       <c r="O23" t="s">
-        <v>861</v>
+        <v>890</v>
       </c>
       <c r="P23" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="Q23" t="s">
-        <v>336</v>
+        <v>892</v>
       </c>
       <c r="R23" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="S23" t="s">
-        <v>864</v>
+        <v>894</v>
       </c>
       <c r="T23" t="s">
-        <v>865</v>
+        <v>895</v>
       </c>
       <c r="U23" t="s">
-        <v>866</v>
+        <v>896</v>
       </c>
       <c r="V23" t="s">
-        <v>867</v>
+        <v>897</v>
       </c>
       <c r="W23" t="s">
-        <v>868</v>
+        <v>898</v>
       </c>
       <c r="X23" t="s">
-        <v>869</v>
+        <v>899</v>
       </c>
       <c r="Y23" t="s">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="Z23" t="s">
-        <v>336</v>
+        <v>901</v>
       </c>
       <c r="AA23" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="AB23" t="s">
-        <v>872</v>
+        <v>903</v>
       </c>
       <c r="AC23" t="s">
-        <v>873</v>
+        <v>904</v>
       </c>
       <c r="AD23" t="s">
-        <v>336</v>
+        <v>905</v>
       </c>
       <c r="AE23" t="s">
-        <v>874</v>
+        <v>906</v>
       </c>
       <c r="AF23" t="s">
-        <v>875</v>
+        <v>907</v>
       </c>
       <c r="AG23" t="s">
-        <v>876</v>
+        <v>908</v>
       </c>
       <c r="AH23" t="s">
-        <v>877</v>
+        <v>909</v>
       </c>
       <c r="AI23" t="s">
-        <v>878</v>
+        <v>910</v>
       </c>
       <c r="AJ23" t="s">
-        <v>879</v>
+        <v>911</v>
       </c>
       <c r="AK23" t="s">
-        <v>880</v>
+        <v>912</v>
       </c>
       <c r="AL23" t="s">
-        <v>881</v>
+        <v>339</v>
       </c>
       <c r="AM23" t="s">
-        <v>882</v>
+        <v>913</v>
       </c>
       <c r="AN23" t="s">
-        <v>883</v>
+        <v>914</v>
       </c>
       <c r="AO23" t="s">
-        <v>884</v>
+        <v>915</v>
       </c>
       <c r="AP23" t="s">
-        <v>885</v>
+        <v>916</v>
       </c>
       <c r="AQ23" t="s">
-        <v>886</v>
+        <v>917</v>
       </c>
       <c r="AR23" t="s">
-        <v>887</v>
+        <v>918</v>
       </c>
       <c r="AS23" t="s">
-        <v>888</v>
+        <v>919</v>
       </c>
       <c r="AT23" t="s">
-        <v>889</v>
+        <v>920</v>
       </c>
       <c r="AU23" t="s">
-        <v>890</v>
+        <v>921</v>
       </c>
       <c r="AV23" t="s">
-        <v>891</v>
+        <v>922</v>
       </c>
       <c r="AW23" t="s">
-        <v>892</v>
+        <v>923</v>
       </c>
       <c r="AX23" t="s">
-        <v>893</v>
+        <v>924</v>
       </c>
       <c r="AY23" t="s">
-        <v>894</v>
+        <v>925</v>
       </c>
       <c r="AZ23" t="s">
-        <v>895</v>
+        <v>926</v>
       </c>
       <c r="BA23" t="s">
-        <v>896</v>
+        <v>927</v>
       </c>
       <c r="BB23" t="s">
-        <v>897</v>
+        <v>928</v>
       </c>
       <c r="BC23" t="s">
-        <v>898</v>
+        <v>929</v>
       </c>
       <c r="BD23" t="s">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="BE23" t="s">
-        <v>900</v>
+        <v>931</v>
       </c>
       <c r="BF23" t="s">
-        <v>901</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>902</v>
+        <v>933</v>
       </c>
       <c r="B24" t="s">
         <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>903</v>
+        <v>934</v>
       </c>
       <c r="E24" t="s">
-        <v>904</v>
+        <v>935</v>
       </c>
       <c r="F24" t="s">
         <v>333</v>
@@ -8091,171 +8232,171 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>905</v>
+        <v>936</v>
       </c>
       <c r="J24" t="s">
-        <v>906</v>
+        <v>937</v>
       </c>
       <c r="K24" t="s">
-        <v>907</v>
+        <v>938</v>
       </c>
       <c r="L24" t="s">
-        <v>908</v>
+        <v>939</v>
       </c>
       <c r="M24" t="s">
-        <v>909</v>
+        <v>339</v>
       </c>
       <c r="N24" t="s">
-        <v>336</v>
+        <v>940</v>
       </c>
       <c r="O24" t="s">
-        <v>910</v>
+        <v>941</v>
       </c>
       <c r="P24" t="s">
-        <v>911</v>
+        <v>942</v>
       </c>
       <c r="Q24" t="s">
-        <v>912</v>
+        <v>943</v>
       </c>
       <c r="R24" t="s">
-        <v>913</v>
+        <v>944</v>
       </c>
       <c r="S24" t="s">
-        <v>914</v>
+        <v>945</v>
       </c>
       <c r="T24" t="s">
-        <v>915</v>
+        <v>946</v>
       </c>
       <c r="U24" t="s">
-        <v>916</v>
+        <v>947</v>
       </c>
       <c r="V24" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="W24" t="s">
-        <v>917</v>
+        <v>339</v>
       </c>
       <c r="X24" t="s">
-        <v>336</v>
+        <v>948</v>
       </c>
       <c r="Y24" t="s">
-        <v>918</v>
+        <v>949</v>
       </c>
       <c r="Z24" t="s">
-        <v>919</v>
+        <v>950</v>
       </c>
       <c r="AA24" t="s">
-        <v>920</v>
+        <v>951</v>
       </c>
       <c r="AB24" t="s">
-        <v>336</v>
+        <v>952</v>
       </c>
       <c r="AC24" t="s">
-        <v>336</v>
+        <v>953</v>
       </c>
       <c r="AD24" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="AE24" t="s">
-        <v>922</v>
+        <v>955</v>
       </c>
       <c r="AF24" t="s">
-        <v>923</v>
+        <v>956</v>
       </c>
       <c r="AG24" t="s">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="AH24" t="s">
-        <v>925</v>
+        <v>958</v>
       </c>
       <c r="AI24" t="s">
-        <v>926</v>
+        <v>959</v>
       </c>
       <c r="AJ24" t="s">
-        <v>927</v>
+        <v>960</v>
       </c>
       <c r="AK24" t="s">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="AL24" t="s">
-        <v>336</v>
+        <v>962</v>
       </c>
       <c r="AM24" t="s">
-        <v>929</v>
+        <v>963</v>
       </c>
       <c r="AN24" t="s">
-        <v>930</v>
+        <v>964</v>
       </c>
       <c r="AO24" t="s">
-        <v>931</v>
+        <v>965</v>
       </c>
       <c r="AP24" t="s">
-        <v>336</v>
+        <v>966</v>
       </c>
       <c r="AQ24" t="s">
-        <v>932</v>
+        <v>967</v>
       </c>
       <c r="AR24" t="s">
-        <v>933</v>
+        <v>968</v>
       </c>
       <c r="AS24" t="s">
-        <v>934</v>
+        <v>969</v>
       </c>
       <c r="AT24" t="s">
-        <v>935</v>
+        <v>970</v>
       </c>
       <c r="AU24" t="s">
-        <v>936</v>
+        <v>971</v>
       </c>
       <c r="AV24" t="s">
-        <v>937</v>
+        <v>972</v>
       </c>
       <c r="AW24" t="s">
-        <v>938</v>
+        <v>973</v>
       </c>
       <c r="AX24" t="s">
-        <v>939</v>
+        <v>974</v>
       </c>
       <c r="AY24" t="s">
-        <v>940</v>
+        <v>975</v>
       </c>
       <c r="AZ24" t="s">
-        <v>941</v>
+        <v>976</v>
       </c>
       <c r="BA24" t="s">
-        <v>942</v>
+        <v>977</v>
       </c>
       <c r="BB24" t="s">
-        <v>943</v>
+        <v>339</v>
       </c>
       <c r="BC24" t="s">
-        <v>944</v>
+        <v>978</v>
       </c>
       <c r="BD24" t="s">
-        <v>945</v>
+        <v>979</v>
       </c>
       <c r="BE24" t="s">
-        <v>946</v>
+        <v>980</v>
       </c>
       <c r="BF24" t="s">
-        <v>947</v>
+        <v>981</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>948</v>
+        <v>982</v>
       </c>
       <c r="B25" t="s">
         <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>949</v>
+        <v>983</v>
       </c>
       <c r="E25" t="s">
-        <v>950</v>
+        <v>984</v>
       </c>
       <c r="F25" t="s">
         <v>333</v>
@@ -8265,171 +8406,171 @@
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>951</v>
+        <v>339</v>
       </c>
       <c r="J25" t="s">
-        <v>952</v>
+        <v>985</v>
       </c>
       <c r="K25" t="s">
-        <v>336</v>
+        <v>986</v>
       </c>
       <c r="L25" t="s">
-        <v>953</v>
+        <v>987</v>
       </c>
       <c r="M25" t="s">
-        <v>954</v>
+        <v>988</v>
       </c>
       <c r="N25" t="s">
-        <v>955</v>
+        <v>989</v>
       </c>
       <c r="O25" t="s">
-        <v>956</v>
+        <v>339</v>
       </c>
       <c r="P25" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="Q25" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="R25" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
       <c r="S25" t="s">
-        <v>960</v>
+        <v>993</v>
       </c>
       <c r="T25" t="s">
-        <v>961</v>
+        <v>994</v>
       </c>
       <c r="U25" t="s">
-        <v>962</v>
+        <v>995</v>
       </c>
       <c r="V25" t="s">
-        <v>963</v>
+        <v>996</v>
       </c>
       <c r="W25" t="s">
-        <v>964</v>
+        <v>997</v>
       </c>
       <c r="X25" t="s">
-        <v>965</v>
+        <v>998</v>
       </c>
       <c r="Y25" t="s">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="Z25" t="s">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="s">
-        <v>968</v>
+        <v>339</v>
       </c>
       <c r="AB25" t="s">
-        <v>336</v>
+        <v>1001</v>
       </c>
       <c r="AC25" t="s">
-        <v>969</v>
+        <v>1002</v>
       </c>
       <c r="AD25" t="s">
-        <v>970</v>
+        <v>1003</v>
       </c>
       <c r="AE25" t="s">
-        <v>971</v>
+        <v>1004</v>
       </c>
       <c r="AF25" t="s">
-        <v>972</v>
+        <v>1005</v>
       </c>
       <c r="AG25" t="s">
-        <v>973</v>
+        <v>339</v>
       </c>
       <c r="AH25" t="s">
-        <v>336</v>
+        <v>1006</v>
       </c>
       <c r="AI25" t="s">
-        <v>974</v>
+        <v>1007</v>
       </c>
       <c r="AJ25" t="s">
-        <v>975</v>
+        <v>1008</v>
       </c>
       <c r="AK25" t="s">
-        <v>976</v>
+        <v>1009</v>
       </c>
       <c r="AL25" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
       <c r="AM25" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
       <c r="AN25" t="s">
-        <v>979</v>
+        <v>1012</v>
       </c>
       <c r="AO25" t="s">
-        <v>980</v>
+        <v>1013</v>
       </c>
       <c r="AP25" t="s">
-        <v>981</v>
+        <v>1014</v>
       </c>
       <c r="AQ25" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
       <c r="AR25" t="s">
-        <v>983</v>
+        <v>1016</v>
       </c>
       <c r="AS25" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
       <c r="AT25" t="s">
-        <v>336</v>
+        <v>1018</v>
       </c>
       <c r="AU25" t="s">
-        <v>985</v>
+        <v>1019</v>
       </c>
       <c r="AV25" t="s">
-        <v>336</v>
+        <v>1020</v>
       </c>
       <c r="AW25" t="s">
-        <v>986</v>
+        <v>1021</v>
       </c>
       <c r="AX25" t="s">
-        <v>987</v>
+        <v>1022</v>
       </c>
       <c r="AY25" t="s">
-        <v>988</v>
+        <v>1023</v>
       </c>
       <c r="AZ25" t="s">
-        <v>989</v>
+        <v>1024</v>
       </c>
       <c r="BA25" t="s">
-        <v>990</v>
+        <v>1025</v>
       </c>
       <c r="BB25" t="s">
-        <v>991</v>
+        <v>1026</v>
       </c>
       <c r="BC25" t="s">
-        <v>992</v>
+        <v>1027</v>
       </c>
       <c r="BD25" t="s">
-        <v>993</v>
+        <v>1028</v>
       </c>
       <c r="BE25" t="s">
-        <v>994</v>
+        <v>1029</v>
       </c>
       <c r="BF25" t="s">
-        <v>995</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>996</v>
+        <v>1031</v>
       </c>
       <c r="B26" t="s">
         <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>997</v>
+        <v>1032</v>
       </c>
       <c r="E26" t="s">
-        <v>998</v>
+        <v>1033</v>
       </c>
       <c r="F26" t="s">
         <v>333</v>
@@ -8439,171 +8580,171 @@
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>336</v>
+        <v>1034</v>
       </c>
       <c r="J26" t="s">
-        <v>999</v>
+        <v>1035</v>
       </c>
       <c r="K26" t="s">
-        <v>1000</v>
+        <v>1036</v>
       </c>
       <c r="L26" t="s">
-        <v>1001</v>
+        <v>1037</v>
       </c>
       <c r="M26" t="s">
-        <v>1002</v>
+        <v>1038</v>
       </c>
       <c r="N26" t="s">
-        <v>1003</v>
+        <v>1039</v>
       </c>
       <c r="O26" t="s">
-        <v>1004</v>
+        <v>1040</v>
       </c>
       <c r="P26" t="s">
-        <v>1005</v>
+        <v>1041</v>
       </c>
       <c r="Q26" t="s">
-        <v>336</v>
+        <v>1042</v>
       </c>
       <c r="R26" t="s">
-        <v>1006</v>
+        <v>1043</v>
       </c>
       <c r="S26" t="s">
-        <v>1007</v>
+        <v>1044</v>
       </c>
       <c r="T26" t="s">
-        <v>1008</v>
+        <v>1045</v>
       </c>
       <c r="U26" t="s">
-        <v>336</v>
+        <v>1046</v>
       </c>
       <c r="V26" t="s">
-        <v>1009</v>
+        <v>1047</v>
       </c>
       <c r="W26" t="s">
-        <v>1010</v>
+        <v>1048</v>
       </c>
       <c r="X26" t="s">
-        <v>1011</v>
+        <v>1049</v>
       </c>
       <c r="Y26" t="s">
-        <v>1012</v>
+        <v>1050</v>
       </c>
       <c r="Z26" t="s">
-        <v>1013</v>
+        <v>1051</v>
       </c>
       <c r="AA26" t="s">
-        <v>1014</v>
+        <v>1052</v>
       </c>
       <c r="AB26" t="s">
-        <v>1015</v>
+        <v>339</v>
       </c>
       <c r="AC26" t="s">
-        <v>336</v>
+        <v>1053</v>
       </c>
       <c r="AD26" t="s">
-        <v>1016</v>
+        <v>1054</v>
       </c>
       <c r="AE26" t="s">
-        <v>1017</v>
+        <v>1055</v>
       </c>
       <c r="AF26" t="s">
-        <v>1018</v>
+        <v>1056</v>
       </c>
       <c r="AG26" t="s">
-        <v>1019</v>
+        <v>1057</v>
       </c>
       <c r="AH26" t="s">
-        <v>1020</v>
+        <v>1058</v>
       </c>
       <c r="AI26" t="s">
-        <v>1021</v>
+        <v>1059</v>
       </c>
       <c r="AJ26" t="s">
-        <v>1022</v>
+        <v>1060</v>
       </c>
       <c r="AK26" t="s">
-        <v>1023</v>
+        <v>1061</v>
       </c>
       <c r="AL26" t="s">
-        <v>1024</v>
+        <v>1062</v>
       </c>
       <c r="AM26" t="s">
-        <v>1025</v>
+        <v>1063</v>
       </c>
       <c r="AN26" t="s">
-        <v>1026</v>
+        <v>1064</v>
       </c>
       <c r="AO26" t="s">
-        <v>1027</v>
+        <v>1065</v>
       </c>
       <c r="AP26" t="s">
-        <v>1028</v>
+        <v>1066</v>
       </c>
       <c r="AQ26" t="s">
-        <v>1029</v>
+        <v>1067</v>
       </c>
       <c r="AR26" t="s">
-        <v>1030</v>
+        <v>1068</v>
       </c>
       <c r="AS26" t="s">
-        <v>1031</v>
+        <v>1069</v>
       </c>
       <c r="AT26" t="s">
-        <v>1032</v>
+        <v>339</v>
       </c>
       <c r="AU26" t="s">
-        <v>1033</v>
+        <v>1070</v>
       </c>
       <c r="AV26" t="s">
-        <v>1034</v>
+        <v>1071</v>
       </c>
       <c r="AW26" t="s">
-        <v>1035</v>
+        <v>339</v>
       </c>
       <c r="AX26" t="s">
-        <v>1036</v>
+        <v>1072</v>
       </c>
       <c r="AY26" t="s">
-        <v>1037</v>
+        <v>1073</v>
       </c>
       <c r="AZ26" t="s">
-        <v>1038</v>
+        <v>1074</v>
       </c>
       <c r="BA26" t="s">
-        <v>1039</v>
+        <v>1075</v>
       </c>
       <c r="BB26" t="s">
-        <v>1040</v>
+        <v>339</v>
       </c>
       <c r="BC26" t="s">
-        <v>1041</v>
+        <v>1076</v>
       </c>
       <c r="BD26" t="s">
-        <v>1042</v>
+        <v>1077</v>
       </c>
       <c r="BE26" t="s">
-        <v>1043</v>
+        <v>1078</v>
       </c>
       <c r="BF26" t="s">
-        <v>336</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1044</v>
+        <v>1080</v>
       </c>
       <c r="B27" t="s">
         <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>1045</v>
+        <v>1081</v>
       </c>
       <c r="E27" t="s">
-        <v>1046</v>
+        <v>1082</v>
       </c>
       <c r="F27" t="s">
         <v>333</v>
@@ -8613,171 +8754,171 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>1047</v>
+        <v>1083</v>
       </c>
       <c r="J27" t="s">
-        <v>1048</v>
+        <v>1084</v>
       </c>
       <c r="K27" t="s">
-        <v>336</v>
+        <v>1085</v>
       </c>
       <c r="L27" t="s">
-        <v>1049</v>
+        <v>1086</v>
       </c>
       <c r="M27" t="s">
-        <v>1050</v>
+        <v>1087</v>
       </c>
       <c r="N27" t="s">
-        <v>1051</v>
+        <v>1088</v>
       </c>
       <c r="O27" t="s">
-        <v>1052</v>
+        <v>1089</v>
       </c>
       <c r="P27" t="s">
-        <v>1053</v>
+        <v>1090</v>
       </c>
       <c r="Q27" t="s">
-        <v>1054</v>
+        <v>1091</v>
       </c>
       <c r="R27" t="s">
-        <v>1055</v>
+        <v>1092</v>
       </c>
       <c r="S27" t="s">
-        <v>1056</v>
+        <v>1093</v>
       </c>
       <c r="T27" t="s">
-        <v>336</v>
+        <v>1094</v>
       </c>
       <c r="U27" t="s">
-        <v>1057</v>
+        <v>1095</v>
       </c>
       <c r="V27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="W27" t="s">
-        <v>1058</v>
+        <v>1096</v>
       </c>
       <c r="X27" t="s">
-        <v>1059</v>
+        <v>1097</v>
       </c>
       <c r="Y27" t="s">
-        <v>1060</v>
+        <v>1098</v>
       </c>
       <c r="Z27" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
       <c r="AA27" t="s">
-        <v>1062</v>
+        <v>1100</v>
       </c>
       <c r="AB27" t="s">
-        <v>336</v>
+        <v>1101</v>
       </c>
       <c r="AC27" t="s">
-        <v>1063</v>
+        <v>1102</v>
       </c>
       <c r="AD27" t="s">
-        <v>1064</v>
+        <v>1103</v>
       </c>
       <c r="AE27" t="s">
-        <v>1065</v>
+        <v>1104</v>
       </c>
       <c r="AF27" t="s">
-        <v>1066</v>
+        <v>1105</v>
       </c>
       <c r="AG27" t="s">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="AH27" t="s">
-        <v>1068</v>
+        <v>1107</v>
       </c>
       <c r="AI27" t="s">
-        <v>1069</v>
+        <v>1108</v>
       </c>
       <c r="AJ27" t="s">
-        <v>1070</v>
+        <v>1109</v>
       </c>
       <c r="AK27" t="s">
-        <v>1071</v>
+        <v>339</v>
       </c>
       <c r="AL27" t="s">
-        <v>1072</v>
+        <v>1110</v>
       </c>
       <c r="AM27" t="s">
-        <v>1073</v>
+        <v>1111</v>
       </c>
       <c r="AN27" t="s">
-        <v>1074</v>
+        <v>1112</v>
       </c>
       <c r="AO27" t="s">
-        <v>336</v>
+        <v>1113</v>
       </c>
       <c r="AP27" t="s">
-        <v>1075</v>
+        <v>1114</v>
       </c>
       <c r="AQ27" t="s">
-        <v>1076</v>
+        <v>1115</v>
       </c>
       <c r="AR27" t="s">
-        <v>1077</v>
+        <v>339</v>
       </c>
       <c r="AS27" t="s">
-        <v>1078</v>
+        <v>339</v>
       </c>
       <c r="AT27" t="s">
-        <v>1079</v>
+        <v>339</v>
       </c>
       <c r="AU27" t="s">
-        <v>1080</v>
+        <v>1116</v>
       </c>
       <c r="AV27" t="s">
-        <v>1081</v>
+        <v>1117</v>
       </c>
       <c r="AW27" t="s">
-        <v>336</v>
+        <v>1118</v>
       </c>
       <c r="AX27" t="s">
-        <v>336</v>
+        <v>1119</v>
       </c>
       <c r="AY27" t="s">
-        <v>336</v>
+        <v>1120</v>
       </c>
       <c r="AZ27" t="s">
-        <v>1082</v>
+        <v>339</v>
       </c>
       <c r="BA27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="BB27" t="s">
-        <v>1083</v>
+        <v>1121</v>
       </c>
       <c r="BC27" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
       <c r="BD27" t="s">
-        <v>1085</v>
+        <v>1123</v>
       </c>
       <c r="BE27" t="s">
-        <v>1086</v>
+        <v>1124</v>
       </c>
       <c r="BF27" t="s">
-        <v>1087</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1088</v>
+        <v>1126</v>
       </c>
       <c r="B28" t="s">
         <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
       <c r="E28" t="s">
-        <v>1090</v>
+        <v>1128</v>
       </c>
       <c r="F28" t="s">
         <v>333</v>
@@ -8787,171 +8928,171 @@
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>1091</v>
+        <v>1129</v>
       </c>
       <c r="J28" t="s">
-        <v>336</v>
+        <v>1130</v>
       </c>
       <c r="K28" t="s">
-        <v>1092</v>
+        <v>1131</v>
       </c>
       <c r="L28" t="s">
-        <v>1093</v>
+        <v>1132</v>
       </c>
       <c r="M28" t="s">
-        <v>1094</v>
+        <v>1133</v>
       </c>
       <c r="N28" t="s">
-        <v>1095</v>
+        <v>1134</v>
       </c>
       <c r="O28" t="s">
-        <v>1096</v>
+        <v>1135</v>
       </c>
       <c r="P28" t="s">
-        <v>1097</v>
+        <v>1136</v>
       </c>
       <c r="Q28" t="s">
-        <v>336</v>
+        <v>1137</v>
       </c>
       <c r="R28" t="s">
-        <v>1098</v>
+        <v>1138</v>
       </c>
       <c r="S28" t="s">
-        <v>336</v>
+        <v>1139</v>
       </c>
       <c r="T28" t="s">
-        <v>1099</v>
+        <v>1140</v>
       </c>
       <c r="U28" t="s">
-        <v>1100</v>
+        <v>1141</v>
       </c>
       <c r="V28" t="s">
-        <v>1101</v>
+        <v>1142</v>
       </c>
       <c r="W28" t="s">
-        <v>1102</v>
+        <v>1143</v>
       </c>
       <c r="X28" t="s">
-        <v>1103</v>
+        <v>1144</v>
       </c>
       <c r="Y28" t="s">
-        <v>1104</v>
+        <v>1145</v>
       </c>
       <c r="Z28" t="s">
-        <v>1105</v>
+        <v>339</v>
       </c>
       <c r="AA28" t="s">
-        <v>1106</v>
+        <v>1146</v>
       </c>
       <c r="AB28" t="s">
-        <v>1107</v>
+        <v>1147</v>
       </c>
       <c r="AC28" t="s">
-        <v>1108</v>
+        <v>1148</v>
       </c>
       <c r="AD28" t="s">
-        <v>1109</v>
+        <v>1149</v>
       </c>
       <c r="AE28" t="s">
-        <v>1110</v>
+        <v>1150</v>
       </c>
       <c r="AF28" t="s">
-        <v>1111</v>
+        <v>1151</v>
       </c>
       <c r="AG28" t="s">
-        <v>1112</v>
+        <v>1152</v>
       </c>
       <c r="AH28" t="s">
-        <v>1113</v>
+        <v>1153</v>
       </c>
       <c r="AI28" t="s">
-        <v>1114</v>
+        <v>1154</v>
       </c>
       <c r="AJ28" t="s">
-        <v>336</v>
+        <v>1155</v>
       </c>
       <c r="AK28" t="s">
-        <v>1115</v>
+        <v>1156</v>
       </c>
       <c r="AL28" t="s">
-        <v>1116</v>
+        <v>1157</v>
       </c>
       <c r="AM28" t="s">
-        <v>336</v>
+        <v>1158</v>
       </c>
       <c r="AN28" t="s">
-        <v>1117</v>
+        <v>1159</v>
       </c>
       <c r="AO28" t="s">
-        <v>1118</v>
+        <v>1160</v>
       </c>
       <c r="AP28" t="s">
-        <v>1119</v>
+        <v>1161</v>
       </c>
       <c r="AQ28" t="s">
-        <v>1120</v>
+        <v>339</v>
       </c>
       <c r="AR28" t="s">
-        <v>1121</v>
+        <v>1162</v>
       </c>
       <c r="AS28" t="s">
-        <v>1122</v>
+        <v>1163</v>
       </c>
       <c r="AT28" t="s">
-        <v>1123</v>
+        <v>1164</v>
       </c>
       <c r="AU28" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AV28" t="s">
-        <v>1124</v>
+        <v>1165</v>
       </c>
       <c r="AW28" t="s">
-        <v>1125</v>
+        <v>1166</v>
       </c>
       <c r="AX28" t="s">
-        <v>1126</v>
+        <v>1167</v>
       </c>
       <c r="AY28" t="s">
-        <v>1127</v>
+        <v>1168</v>
       </c>
       <c r="AZ28" t="s">
-        <v>1128</v>
+        <v>1169</v>
       </c>
       <c r="BA28" t="s">
-        <v>1129</v>
+        <v>1170</v>
       </c>
       <c r="BB28" t="s">
-        <v>336</v>
+        <v>1171</v>
       </c>
       <c r="BC28" t="s">
-        <v>1130</v>
+        <v>339</v>
       </c>
       <c r="BD28" t="s">
-        <v>1131</v>
+        <v>1172</v>
       </c>
       <c r="BE28" t="s">
-        <v>1132</v>
+        <v>1173</v>
       </c>
       <c r="BF28" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="B29" t="s">
         <v>330</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>1135</v>
+        <v>1176</v>
       </c>
       <c r="E29" t="s">
-        <v>1136</v>
+        <v>1177</v>
       </c>
       <c r="F29" t="s">
         <v>333</v>
@@ -8961,171 +9102,171 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>1137</v>
+        <v>1178</v>
       </c>
       <c r="J29" t="s">
-        <v>1138</v>
+        <v>1179</v>
       </c>
       <c r="K29" t="s">
-        <v>1139</v>
+        <v>1180</v>
       </c>
       <c r="L29" t="s">
-        <v>1140</v>
+        <v>1181</v>
       </c>
       <c r="M29" t="s">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="N29" t="s">
-        <v>1142</v>
+        <v>1183</v>
       </c>
       <c r="O29" t="s">
-        <v>1143</v>
+        <v>1184</v>
       </c>
       <c r="P29" t="s">
-        <v>1144</v>
+        <v>1185</v>
       </c>
       <c r="Q29" t="s">
-        <v>1145</v>
+        <v>1186</v>
       </c>
       <c r="R29" t="s">
-        <v>1146</v>
+        <v>1187</v>
       </c>
       <c r="S29" t="s">
-        <v>1147</v>
+        <v>1188</v>
       </c>
       <c r="T29" t="s">
-        <v>1148</v>
+        <v>1189</v>
       </c>
       <c r="U29" t="s">
-        <v>1149</v>
+        <v>1190</v>
       </c>
       <c r="V29" t="s">
-        <v>1150</v>
+        <v>339</v>
       </c>
       <c r="W29" t="s">
-        <v>336</v>
+        <v>1191</v>
       </c>
       <c r="X29" t="s">
-        <v>1151</v>
+        <v>1192</v>
       </c>
       <c r="Y29" t="s">
-        <v>1152</v>
+        <v>1193</v>
       </c>
       <c r="Z29" t="s">
-        <v>1153</v>
+        <v>1194</v>
       </c>
       <c r="AA29" t="s">
-        <v>1154</v>
+        <v>1195</v>
       </c>
       <c r="AB29" t="s">
-        <v>1155</v>
+        <v>1196</v>
       </c>
       <c r="AC29" t="s">
-        <v>336</v>
+        <v>1197</v>
       </c>
       <c r="AD29" t="s">
-        <v>1156</v>
+        <v>1198</v>
       </c>
       <c r="AE29" t="s">
-        <v>1157</v>
+        <v>1199</v>
       </c>
       <c r="AF29" t="s">
-        <v>1158</v>
+        <v>1200</v>
       </c>
       <c r="AG29" t="s">
-        <v>1159</v>
+        <v>1201</v>
       </c>
       <c r="AH29" t="s">
-        <v>1160</v>
+        <v>1202</v>
       </c>
       <c r="AI29" t="s">
-        <v>1161</v>
+        <v>1203</v>
       </c>
       <c r="AJ29" t="s">
-        <v>1162</v>
+        <v>1204</v>
       </c>
       <c r="AK29" t="s">
-        <v>1163</v>
+        <v>1205</v>
       </c>
       <c r="AL29" t="s">
-        <v>336</v>
+        <v>1206</v>
       </c>
       <c r="AM29" t="s">
-        <v>1164</v>
+        <v>1207</v>
       </c>
       <c r="AN29" t="s">
-        <v>1165</v>
+        <v>1208</v>
       </c>
       <c r="AO29" t="s">
-        <v>1166</v>
+        <v>1209</v>
       </c>
       <c r="AP29" t="s">
-        <v>1167</v>
+        <v>1210</v>
       </c>
       <c r="AQ29" t="s">
-        <v>336</v>
+        <v>1211</v>
       </c>
       <c r="AR29" t="s">
-        <v>1168</v>
+        <v>1212</v>
       </c>
       <c r="AS29" t="s">
-        <v>1169</v>
+        <v>1213</v>
       </c>
       <c r="AT29" t="s">
-        <v>1170</v>
+        <v>1214</v>
       </c>
       <c r="AU29" t="s">
-        <v>1171</v>
+        <v>1215</v>
       </c>
       <c r="AV29" t="s">
-        <v>1172</v>
+        <v>1216</v>
       </c>
       <c r="AW29" t="s">
-        <v>1173</v>
+        <v>1217</v>
       </c>
       <c r="AX29" t="s">
-        <v>1174</v>
+        <v>1218</v>
       </c>
       <c r="AY29" t="s">
-        <v>1175</v>
+        <v>1219</v>
       </c>
       <c r="AZ29" t="s">
-        <v>336</v>
+        <v>1220</v>
       </c>
       <c r="BA29" t="s">
-        <v>1176</v>
+        <v>1221</v>
       </c>
       <c r="BB29" t="s">
-        <v>1177</v>
+        <v>1222</v>
       </c>
       <c r="BC29" t="s">
-        <v>1178</v>
+        <v>339</v>
       </c>
       <c r="BD29" t="s">
-        <v>1179</v>
+        <v>1223</v>
       </c>
       <c r="BE29" t="s">
-        <v>1180</v>
+        <v>1224</v>
       </c>
       <c r="BF29" t="s">
-        <v>336</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1181</v>
+        <v>1226</v>
       </c>
       <c r="B30" t="s">
         <v>330</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>1182</v>
+        <v>1227</v>
       </c>
       <c r="E30" t="s">
-        <v>1183</v>
+        <v>1228</v>
       </c>
       <c r="F30" t="s">
         <v>333</v>
@@ -9135,171 +9276,171 @@
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>336</v>
+        <v>1229</v>
       </c>
       <c r="J30" t="s">
-        <v>1184</v>
+        <v>1230</v>
       </c>
       <c r="K30" t="s">
-        <v>1185</v>
+        <v>1231</v>
       </c>
       <c r="L30" t="s">
-        <v>1186</v>
+        <v>1232</v>
       </c>
       <c r="M30" t="s">
-        <v>1187</v>
+        <v>1233</v>
       </c>
       <c r="N30" t="s">
-        <v>1188</v>
+        <v>1234</v>
       </c>
       <c r="O30" t="s">
-        <v>1189</v>
+        <v>339</v>
       </c>
       <c r="P30" t="s">
-        <v>1190</v>
+        <v>339</v>
       </c>
       <c r="Q30" t="s">
-        <v>336</v>
+        <v>1235</v>
       </c>
       <c r="R30" t="s">
-        <v>1191</v>
+        <v>1236</v>
       </c>
       <c r="S30" t="s">
-        <v>1192</v>
+        <v>1237</v>
       </c>
       <c r="T30" t="s">
-        <v>336</v>
+        <v>1238</v>
       </c>
       <c r="U30" t="s">
-        <v>1193</v>
+        <v>1239</v>
       </c>
       <c r="V30" t="s">
-        <v>1194</v>
+        <v>1240</v>
       </c>
       <c r="W30" t="s">
-        <v>1195</v>
+        <v>1241</v>
       </c>
       <c r="X30" t="s">
-        <v>1196</v>
+        <v>1242</v>
       </c>
       <c r="Y30" t="s">
-        <v>1197</v>
+        <v>1243</v>
       </c>
       <c r="Z30" t="s">
-        <v>1198</v>
+        <v>1244</v>
       </c>
       <c r="AA30" t="s">
-        <v>1199</v>
+        <v>1245</v>
       </c>
       <c r="AB30" t="s">
-        <v>1200</v>
+        <v>1246</v>
       </c>
       <c r="AC30" t="s">
-        <v>1201</v>
+        <v>1247</v>
       </c>
       <c r="AD30" t="s">
-        <v>1202</v>
+        <v>1248</v>
       </c>
       <c r="AE30" t="s">
-        <v>1203</v>
+        <v>1249</v>
       </c>
       <c r="AF30" t="s">
-        <v>1204</v>
+        <v>1250</v>
       </c>
       <c r="AG30" t="s">
-        <v>1205</v>
+        <v>1251</v>
       </c>
       <c r="AH30" t="s">
-        <v>1206</v>
+        <v>1252</v>
       </c>
       <c r="AI30" t="s">
-        <v>1207</v>
+        <v>1253</v>
       </c>
       <c r="AJ30" t="s">
-        <v>1208</v>
+        <v>1254</v>
       </c>
       <c r="AK30" t="s">
-        <v>1209</v>
+        <v>1255</v>
       </c>
       <c r="AL30" t="s">
-        <v>336</v>
+        <v>1256</v>
       </c>
       <c r="AM30" t="s">
-        <v>336</v>
+        <v>1257</v>
       </c>
       <c r="AN30" t="s">
-        <v>1210</v>
+        <v>1258</v>
       </c>
       <c r="AO30" t="s">
-        <v>1211</v>
+        <v>1259</v>
       </c>
       <c r="AP30" t="s">
-        <v>1212</v>
+        <v>1260</v>
       </c>
       <c r="AQ30" t="s">
-        <v>1213</v>
+        <v>1261</v>
       </c>
       <c r="AR30" t="s">
-        <v>1214</v>
+        <v>1262</v>
       </c>
       <c r="AS30" t="s">
-        <v>1215</v>
+        <v>1263</v>
       </c>
       <c r="AT30" t="s">
-        <v>1216</v>
+        <v>339</v>
       </c>
       <c r="AU30" t="s">
-        <v>1217</v>
+        <v>1264</v>
       </c>
       <c r="AV30" t="s">
-        <v>1218</v>
+        <v>1265</v>
       </c>
       <c r="AW30" t="s">
-        <v>1219</v>
+        <v>1266</v>
       </c>
       <c r="AX30" t="s">
-        <v>1220</v>
+        <v>1267</v>
       </c>
       <c r="AY30" t="s">
-        <v>1221</v>
+        <v>1268</v>
       </c>
       <c r="AZ30" t="s">
-        <v>1222</v>
+        <v>1269</v>
       </c>
       <c r="BA30" t="s">
-        <v>1223</v>
+        <v>339</v>
       </c>
       <c r="BB30" t="s">
-        <v>1224</v>
+        <v>1270</v>
       </c>
       <c r="BC30" t="s">
-        <v>1225</v>
+        <v>1271</v>
       </c>
       <c r="BD30" t="s">
-        <v>1226</v>
+        <v>1272</v>
       </c>
       <c r="BE30" t="s">
-        <v>1227</v>
+        <v>1273</v>
       </c>
       <c r="BF30" t="s">
-        <v>1228</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1229</v>
+        <v>1275</v>
       </c>
       <c r="B31" t="s">
         <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>1230</v>
+        <v>1276</v>
       </c>
       <c r="E31" t="s">
-        <v>1231</v>
+        <v>1277</v>
       </c>
       <c r="F31" t="s">
         <v>333</v>
@@ -9309,154 +9450,154 @@
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>1232</v>
+        <v>1278</v>
       </c>
       <c r="J31" t="s">
-        <v>1233</v>
+        <v>1279</v>
       </c>
       <c r="K31" t="s">
-        <v>1234</v>
+        <v>1280</v>
       </c>
       <c r="L31" t="s">
-        <v>1235</v>
+        <v>1281</v>
       </c>
       <c r="M31" t="s">
-        <v>1236</v>
+        <v>1282</v>
       </c>
       <c r="N31" t="s">
-        <v>1237</v>
+        <v>1283</v>
       </c>
       <c r="O31" t="s">
-        <v>1238</v>
+        <v>1284</v>
       </c>
       <c r="P31" t="s">
-        <v>1239</v>
+        <v>1285</v>
       </c>
       <c r="Q31" t="s">
-        <v>1240</v>
+        <v>1286</v>
       </c>
       <c r="R31" t="s">
-        <v>1241</v>
+        <v>1287</v>
       </c>
       <c r="S31" t="s">
-        <v>1242</v>
+        <v>1288</v>
       </c>
       <c r="T31" t="s">
-        <v>1243</v>
+        <v>1289</v>
       </c>
       <c r="U31" t="s">
-        <v>1244</v>
+        <v>1290</v>
       </c>
       <c r="V31" t="s">
-        <v>1245</v>
+        <v>1291</v>
       </c>
       <c r="W31" t="s">
-        <v>1246</v>
+        <v>1292</v>
       </c>
       <c r="X31" t="s">
-        <v>1247</v>
+        <v>1293</v>
       </c>
       <c r="Y31" t="s">
-        <v>1248</v>
+        <v>1294</v>
       </c>
       <c r="Z31" t="s">
-        <v>1249</v>
+        <v>1295</v>
       </c>
       <c r="AA31" t="s">
-        <v>1250</v>
+        <v>1296</v>
       </c>
       <c r="AB31" t="s">
-        <v>1251</v>
+        <v>1297</v>
       </c>
       <c r="AC31" t="s">
-        <v>1252</v>
+        <v>1298</v>
       </c>
       <c r="AD31" t="s">
-        <v>336</v>
+        <v>1299</v>
       </c>
       <c r="AE31" t="s">
-        <v>1253</v>
+        <v>1300</v>
       </c>
       <c r="AF31" t="s">
-        <v>1254</v>
+        <v>1301</v>
       </c>
       <c r="AG31" t="s">
-        <v>1255</v>
+        <v>1302</v>
       </c>
       <c r="AH31" t="s">
-        <v>1256</v>
+        <v>1303</v>
       </c>
       <c r="AI31" t="s">
-        <v>1257</v>
+        <v>1304</v>
       </c>
       <c r="AJ31" t="s">
-        <v>1258</v>
+        <v>1305</v>
       </c>
       <c r="AK31" t="s">
-        <v>1259</v>
+        <v>1306</v>
       </c>
       <c r="AL31" t="s">
-        <v>1260</v>
+        <v>1307</v>
       </c>
       <c r="AM31" t="s">
-        <v>1261</v>
+        <v>1308</v>
       </c>
       <c r="AN31" t="s">
-        <v>1262</v>
+        <v>1309</v>
       </c>
       <c r="AO31" t="s">
-        <v>1263</v>
+        <v>1310</v>
       </c>
       <c r="AP31" t="s">
-        <v>1264</v>
+        <v>1311</v>
       </c>
       <c r="AQ31" t="s">
-        <v>1265</v>
+        <v>1312</v>
       </c>
       <c r="AR31" t="s">
-        <v>1266</v>
+        <v>1313</v>
       </c>
       <c r="AS31" t="s">
-        <v>1267</v>
+        <v>1314</v>
       </c>
       <c r="AT31" t="s">
-        <v>1268</v>
+        <v>1315</v>
       </c>
       <c r="AU31" t="s">
-        <v>1269</v>
+        <v>1316</v>
       </c>
       <c r="AV31" t="s">
-        <v>336</v>
+        <v>1317</v>
       </c>
       <c r="AW31" t="s">
-        <v>1270</v>
+        <v>1318</v>
       </c>
       <c r="AX31" t="s">
-        <v>1271</v>
+        <v>1319</v>
       </c>
       <c r="AY31" t="s">
-        <v>1272</v>
+        <v>1320</v>
       </c>
       <c r="AZ31" t="s">
-        <v>1273</v>
+        <v>1321</v>
       </c>
       <c r="BA31" t="s">
-        <v>1274</v>
+        <v>1322</v>
       </c>
       <c r="BB31" t="s">
-        <v>1275</v>
+        <v>1323</v>
       </c>
       <c r="BC31" t="s">
-        <v>1276</v>
+        <v>1324</v>
       </c>
       <c r="BD31" t="s">
-        <v>1277</v>
+        <v>339</v>
       </c>
       <c r="BE31" t="s">
-        <v>1278</v>
+        <v>1325</v>
       </c>
       <c r="BF31" t="s">
-        <v>1279</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>
